--- a/data/predictions/abortion/leveled/strongrepublican.xlsx
+++ b/data/predictions/abortion/leveled/strongrepublican.xlsx
@@ -859,7 +859,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.2431609571102687</v>
+        <v>0.2077342213521064</v>
       </c>
       <c r="D34">
         <v>0.5629431418925515</v>
@@ -873,7 +873,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.2506150931536529</v>
+        <v>0.2391451428789056</v>
       </c>
       <c r="D35">
         <v>0.5639176762229391</v>
@@ -887,7 +887,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.2427714529016284</v>
+        <v>0.2565966801885202</v>
       </c>
       <c r="D36">
         <v>0.5636664443015437</v>
@@ -901,7 +901,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.2449512069090889</v>
+        <v>0.2266489146602452</v>
       </c>
       <c r="D37">
         <v>0.5633778378259849</v>
@@ -915,7 +915,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.2358845990610013</v>
+        <v>0.2082766081101597</v>
       </c>
       <c r="D38">
         <v>0.5630880917715735</v>
@@ -929,7 +929,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.2378888114587919</v>
+        <v>0.2419746650640839</v>
       </c>
       <c r="D39">
         <v>0.5627983109705279</v>
